--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N2">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O2">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P2">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q2">
-        <v>217.9431840389177</v>
+        <v>1967.31030073295</v>
       </c>
       <c r="R2">
-        <v>217.9431840389177</v>
+        <v>17705.79270659655</v>
       </c>
       <c r="S2">
-        <v>0.01241090848280402</v>
+        <v>0.07761856872430581</v>
       </c>
       <c r="T2">
-        <v>0.01241090848280402</v>
+        <v>0.07761856872430579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N3">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q3">
-        <v>4103.068969345431</v>
+        <v>5506.43544689037</v>
       </c>
       <c r="R3">
-        <v>4103.068969345431</v>
+        <v>49557.91902201333</v>
       </c>
       <c r="S3">
-        <v>0.2336517826962001</v>
+        <v>0.2172517665368697</v>
       </c>
       <c r="T3">
-        <v>0.2336517826962001</v>
+        <v>0.2172517665368697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N4">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q4">
-        <v>8.247884964255794</v>
+        <v>11.38556167401467</v>
       </c>
       <c r="R4">
-        <v>8.247884964255794</v>
+        <v>102.470055066132</v>
       </c>
       <c r="S4">
-        <v>0.00046968087540556</v>
+        <v>0.0004492077334877385</v>
       </c>
       <c r="T4">
-        <v>0.00046968087540556</v>
+        <v>0.0004492077334877385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N5">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q5">
-        <v>1484.240328566033</v>
+        <v>2171.201349513613</v>
       </c>
       <c r="R5">
-        <v>1484.240328566033</v>
+        <v>19540.81214562252</v>
       </c>
       <c r="S5">
-        <v>0.08452097717830276</v>
+        <v>0.08566291809621555</v>
       </c>
       <c r="T5">
-        <v>0.08452097717830276</v>
+        <v>0.08566291809621554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N6">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O6">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P6">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q6">
-        <v>53.01436511536722</v>
+        <v>377.1331461963167</v>
       </c>
       <c r="R6">
-        <v>53.01436511536722</v>
+        <v>3394.19831576685</v>
       </c>
       <c r="S6">
-        <v>0.003018935584621405</v>
+        <v>0.01487947021644047</v>
       </c>
       <c r="T6">
-        <v>0.003018935584621405</v>
+        <v>0.01487947021644047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N7">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q7">
-        <v>998.0656077575235</v>
+        <v>1055.583007743616</v>
       </c>
       <c r="R7">
-        <v>998.0656077575235</v>
+        <v>9500.247069692548</v>
       </c>
       <c r="S7">
-        <v>0.05683545907772408</v>
+        <v>0.04164713731241688</v>
       </c>
       <c r="T7">
-        <v>0.05683545907772408</v>
+        <v>0.04164713731241688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N8">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q8">
-        <v>2.006286119259982</v>
+        <v>2.182610792884889</v>
       </c>
       <c r="R8">
-        <v>2.006286119259982</v>
+        <v>19.643497135964</v>
       </c>
       <c r="S8">
-        <v>0.0001142491953866717</v>
+        <v>8.611306806192736E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001142491953866717</v>
+        <v>8.611306806192736E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N9">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O9">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P9">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q9">
-        <v>361.0393187772345</v>
+        <v>416.2190355342976</v>
       </c>
       <c r="R9">
-        <v>361.0393187772345</v>
+        <v>3745.971319808678</v>
       </c>
       <c r="S9">
-        <v>0.02055960576972221</v>
+        <v>0.01642157101599426</v>
       </c>
       <c r="T9">
-        <v>0.02055960576972221</v>
+        <v>0.01642157101599425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N10">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O10">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P10">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q10">
-        <v>343.9437581171861</v>
+        <v>2510.372074683825</v>
       </c>
       <c r="R10">
-        <v>343.9437581171861</v>
+        <v>22593.34867215442</v>
       </c>
       <c r="S10">
-        <v>0.01958608856729299</v>
+        <v>0.09904461300783607</v>
       </c>
       <c r="T10">
-        <v>0.01958608856729299</v>
+        <v>0.09904461300783605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N11">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P11">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q11">
-        <v>6475.196585540741</v>
+        <v>7026.447109931106</v>
       </c>
       <c r="R11">
-        <v>6475.196585540741</v>
+        <v>63238.02398937996</v>
       </c>
       <c r="S11">
-        <v>0.3687340468374588</v>
+        <v>0.2772225447539706</v>
       </c>
       <c r="T11">
-        <v>0.3687340468374588</v>
+        <v>0.2772225447539706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N12">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O12">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P12">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q12">
-        <v>13.01627561161907</v>
+        <v>14.528463593358</v>
       </c>
       <c r="R12">
-        <v>13.01627561161907</v>
+        <v>130.756172340222</v>
       </c>
       <c r="S12">
-        <v>0.0007412198097184429</v>
+        <v>0.0005732082780532891</v>
       </c>
       <c r="T12">
-        <v>0.0007412198097184429</v>
+        <v>0.0005732082780532891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N13">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O13">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P13">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q13">
-        <v>2342.331552176141</v>
+        <v>2770.545772217091</v>
       </c>
       <c r="R13">
-        <v>2342.331552176141</v>
+        <v>24934.91194995382</v>
       </c>
       <c r="S13">
-        <v>0.1333855089739871</v>
+        <v>0.1093095468185922</v>
       </c>
       <c r="T13">
-        <v>0.1333855089739871</v>
+        <v>0.1093095468185922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N14">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O14">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P14">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q14">
-        <v>43.43120784746082</v>
+        <v>308.966283722225</v>
       </c>
       <c r="R14">
-        <v>43.43120784746082</v>
+        <v>2780.696553500025</v>
       </c>
       <c r="S14">
-        <v>0.002473216807717299</v>
+        <v>0.01219000414812662</v>
       </c>
       <c r="T14">
-        <v>0.002473216807717299</v>
+        <v>0.01219000414812662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N15">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O15">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P15">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q15">
-        <v>817.6499852745438</v>
+        <v>864.7862495043114</v>
       </c>
       <c r="R15">
-        <v>817.6499852745438</v>
+        <v>7783.076245538803</v>
       </c>
       <c r="S15">
-        <v>0.04656158063835732</v>
+        <v>0.03411941213034733</v>
       </c>
       <c r="T15">
-        <v>0.04656158063835732</v>
+        <v>0.03411941213034733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N16">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O16">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P16">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q16">
-        <v>1.643619220138467</v>
+        <v>1.788103624120667</v>
       </c>
       <c r="R16">
-        <v>1.643619220138467</v>
+        <v>16.092932617086</v>
       </c>
       <c r="S16">
-        <v>9.359690605453229E-05</v>
+        <v>7.054812043798173E-05</v>
       </c>
       <c r="T16">
-        <v>9.359690605453229E-05</v>
+        <v>7.054812043798173E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N17">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O17">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P17">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q17">
-        <v>295.7759403662929</v>
+        <v>340.9873937639497</v>
       </c>
       <c r="R17">
-        <v>295.7759403662929</v>
+        <v>3068.886543875547</v>
       </c>
       <c r="S17">
-        <v>0.01684314259924671</v>
+        <v>0.0134533700388436</v>
       </c>
       <c r="T17">
-        <v>0.01684314259924671</v>
+        <v>0.01345337003884359</v>
       </c>
     </row>
   </sheetData>
